--- a/Paytm Insider Assignment.xlsx
+++ b/Paytm Insider Assignment.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
   <si>
     <t>S.NO.</t>
   </si>
@@ -391,17 +391,23 @@
     <t>Query</t>
   </si>
   <si>
-    <t>select Employee.EmpName, max(Salary.Salary) from Employee Inner join Salary on Employee.EmpID=Salary.EmpID;</t>
-  </si>
-  <si>
-    <t>update Salary inner join Employee on Employee.EmpID=Salary.EmpID set Salary.Salary=5000 where datediff(sysdate(),Employee.Date_of_Birth)/365 &gt;30;</t>
+    <t xml:space="preserve">The Query Number 1 will provide you 3rd highest salary along Employee Name from Mysql Database and in the similar way if you want to fetch 2nd highest salary change limit 1,1 and for 4th highest salary change limit 3,1 and so on…. </t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>select Employee.EmpName, Salary.salary from Employee Inner join Salary on Employee.EmpID=Salary.EmpID order by salary desc limit 2,1;</t>
+  </si>
+  <si>
+    <t>update Salary inner join Employee on Employee.EmpID=Salary.EmpID set Salary.salary=5000 where datediff(sysdate(),Employee.Date_of_Birth)/365 &gt;30;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +446,12 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -482,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -497,6 +509,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -789,7 +802,7 @@
     <col min="2" max="2" width="17.109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="39.44140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="71.5546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="51" style="5" customWidth="1"/>
     <col min="6" max="6" width="21" style="5" customWidth="1"/>
     <col min="7" max="7" width="18.88671875" style="5" customWidth="1"/>
     <col min="8" max="8" width="16.77734375" style="5" customWidth="1"/>
@@ -809,20 +822,28 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:8" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
@@ -968,7 +989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>7</v>
       </c>
@@ -1010,7 +1031,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>10</v>
       </c>
